--- a/solutions/dec_02/data/input.xlsx
+++ b/solutions/dec_02/data/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emelievonschantz/Advent of Code/dec_second/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emelievonschantz/Advent of Code/solutions/dec_02/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C6A99C-38D8-A04E-B054-4C93FEAD8269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9507C0-7372-4F44-B707-63C2AB016420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{BC595A57-ADA3-BC47-A599-46A57B711ABE}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:H1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
